--- a/Lab_1/outputs/output.xlsx
+++ b/Lab_1/outputs/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1873,78 +1873,6 @@
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>17.09.2013</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>1,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>15.08.2013</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>16.07.2013</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>18.06.2013</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>16.05.2013</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>16.04.2013</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>1,5%</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
